--- a/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
+++ b/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
@@ -1,35 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData Processed by Jeff\elec\TCAMRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\TCAMRB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85707D12-8168-4B0C-BC6F-75CC4FE54955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="22300" windowHeight="14480"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="CDN data" sheetId="5" r:id="rId2"/>
-    <sheet name="TCAMRB" sheetId="4" r:id="rId3"/>
+    <sheet name="Calculations" sheetId="2" r:id="rId2"/>
+    <sheet name="EIA Table 2.13" sheetId="3" r:id="rId3"/>
+    <sheet name="TCAMRB" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>TCAMRB Transmission Capacity Across Modeled Region Border</t>
   </si>
@@ -37,112 +42,141 @@
     <t>Sources:</t>
   </si>
   <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Southern California Edison</t>
+  </si>
+  <si>
     <t>MW</t>
   </si>
   <si>
-    <t>Transmission Capacity Across Modeled Region Border</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Interconnection details available at: https://www.c2es.org/site/assets/uploads/2017/05/canada-interconnected.pdf</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>2016 Electricity Exports and Imports Summary</t>
-  </si>
-  <si>
-    <t>https://www.neb-one.gc.ca/nrg/sttstc/lctrct/stt/lctrctysmmr/2016/smmry2016-eng.html</t>
-  </si>
-  <si>
-    <t>Interconnection</t>
-  </si>
-  <si>
-    <t>Interconnection capability (MW)</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Between</t>
-  </si>
-  <si>
-    <t>And</t>
-  </si>
-  <si>
-    <t>Reception</t>
-  </si>
-  <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>QC</t>
-  </si>
-  <si>
-    <t>http://www.hydroquebec.com/data/transenergie/pdf/hqt-plan-directeur-2020.pdf</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>http://www.pubmanitoba.ca/v1/nfat/pdf/hydro_application/nfat_business_case_chapter_05_the_manitoba_hydro_system_interconnection_and_export_markets.pdf</t>
-  </si>
-  <si>
-    <t>http://normandmousseau.com/documents/Locke-2.pdf</t>
-  </si>
-  <si>
-    <t>Interties with the US</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>https://www.bchydro.com/content/dam/hydro/medialib/internet/documents/planning_regulatory/iep_ltap/2012q2/draft_2012_irp_appendix24.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ieso.com/-/media/files/ieso/document-library/power-data/supply/</t>
-  </si>
-  <si>
-    <t>https://www.aeso.ca/market/current-market-initiatives/intertie-restoration/</t>
-  </si>
-  <si>
-    <t>https://docs2.neb-one.gc.ca/ll-eng/llisapi.dll?func=ll&amp;objId=587269&amp;objaction=download&amp;viewType=1</t>
-  </si>
-  <si>
-    <t>Used average import/export capability data</t>
-  </si>
-  <si>
-    <t>All sources included in 'CDN data' tab</t>
+    <t>El Paso Electric Co</t>
+  </si>
+  <si>
+    <t>American Electric Power Texas</t>
+  </si>
+  <si>
+    <t>Sharyland Utilities LP</t>
+  </si>
+  <si>
+    <t>Utility / Area</t>
+  </si>
+  <si>
+    <t>Laredo, TX</t>
+  </si>
+  <si>
+    <t>Mexico-U.S. Interconnections</t>
+  </si>
+  <si>
+    <t>Transmission &amp; Distribution World</t>
+  </si>
+  <si>
+    <t>TransAmerica Interconnections</t>
+  </si>
+  <si>
+    <t>http://tdworld.com/overhead-transmission/transamerica-interconnections</t>
+  </si>
+  <si>
+    <t>Under "Existing U.S.-Mexico Interconnections" header</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>U.S. Total</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Imports from</t>
+  </si>
+  <si>
+    <t>Exports to</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t>Exports</t>
+  </si>
+  <si>
+    <t>Mexico and Canada Imports and Exports</t>
+  </si>
+  <si>
+    <t>Energy Information Administration</t>
+  </si>
+  <si>
+    <t>Table 2.13</t>
+  </si>
+  <si>
+    <t>of the 37 main interconnections between the U.S. and Canada in kV.</t>
+  </si>
+  <si>
+    <t>(Canadian Electricity Association, "The Inegrated Electric Grid," p. 6)</t>
+  </si>
+  <si>
+    <t>http://www.electricity.ca/media/pdfs/CanadaUS/CEA_US%20Policy%20Paper_EN.pdf</t>
+  </si>
+  <si>
+    <t>Accordingly, we will assume that interconnection capacity is proportionate to total</t>
+  </si>
+  <si>
+    <t>imports and exports, and we will scale up Mexico's number propotionately to obtain</t>
+  </si>
+  <si>
+    <t>Estimated Interconnection Capacity to Canada</t>
+  </si>
+  <si>
+    <t>in 2013 appears to be an outlier and might be an error.</t>
+  </si>
+  <si>
+    <t>an estimate for Canada.  We will use data from 2010-2012 because imports from Mexico</t>
+  </si>
+  <si>
+    <t>Imports + Exports to Mexico (2010-2012)</t>
+  </si>
+  <si>
+    <t>Imports + Exports to Canada (2010-2012)</t>
+  </si>
+  <si>
+    <t>Table 2.14.  Electric Power Industry - U.S. Electricity Imports from and Electricity Exports to Canada</t>
+  </si>
+  <si>
+    <t>Transmission Capacity Across Modeled Region Border (MW)</t>
+  </si>
+  <si>
+    <t>We cannot find any source that explicitly provides the capacity of transmission lines</t>
+  </si>
+  <si>
+    <t>to/from Canada.  The closest we can find is a diagram showing the voltage ratings</t>
+  </si>
+  <si>
+    <t>and Mexico, 2009-2019 (Megawatthours)</t>
+  </si>
+  <si>
+    <t>Notes: As of November 2017, the data for 2016 and going forward will be published using data from the Form EIA-111, "Quarterly Electricity Imports and Exports Report." During 2013-2015, EIA revised its approach to estimating imports from Mexico.
+Sources: 2016-2019, U.S. Energy Information Administration, Form EIA-111, "Quarterly Electricity Imports and Exports Report"; 2006-2015 data, National Energy Board of Canada; FERC 714, Annual Electric Balancing Authority Area and Planning Report; California Energy Commission; and EIA estimates.</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/electricity/annual/</t>
+  </si>
+  <si>
+    <t>Electric Power Annual 2020 (with data for 2019)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,36 +195,31 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color indexed="30"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,18 +234,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFEAF7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -224,39 +265,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -320,9 +415,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -350,14 +445,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -385,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -560,17 +689,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="2" width="70.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="70.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -583,58 +712,63 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
-        <v>7</v>
+      <c r="B4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
+      <c r="B5" s="4">
+        <v>2011</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="3">
-        <v>2017</v>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="4">
+        <v>2020</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -643,254 +777,539 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
+        <f>SUM(B3:B7)</f>
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="12" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="8">
+        <f>SUM('EIA Table 2.13'!D7:E9)</f>
+        <v>10649078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="8">
+        <f>SUM('EIA Table 2.13'!B7:C9)</f>
+        <v>208271744</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="10">
+        <f>B8*(B22/B21)</f>
+        <v>25151.234950481161</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="7" width="17.08984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="10">
-        <v>705</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1120</v>
-      </c>
-      <c r="E6" s="10">
-        <f>AVERAGE(C6,D6)</f>
-        <v>912.5</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10">
-        <f>1100+2170</f>
-        <v>3270</v>
-      </c>
-      <c r="D7" s="10">
-        <f>1999+2275</f>
-        <v>4274</v>
-      </c>
-      <c r="E7" s="10">
-        <f>AVERAGE(C7,D7)</f>
-        <v>3772</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="10">
-        <f>800+900</f>
-        <v>1700</v>
-      </c>
-      <c r="D8" s="10">
-        <f>800+900</f>
-        <v>1700</v>
-      </c>
-      <c r="E8" s="10">
-        <f t="shared" ref="E8:E12" si="0">AVERAGE(C8,D8)</f>
-        <v>1700</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="10">
-        <v>700</v>
-      </c>
-      <c r="D9" s="10">
-        <f>1950</f>
-        <v>1950</v>
-      </c>
-      <c r="E9" s="10">
-        <f t="shared" si="0"/>
-        <v>1325</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="C4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="10">
-        <v>150</v>
-      </c>
-      <c r="D10" s="10">
-        <v>150</v>
-      </c>
-      <c r="E10" s="10">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="10">
-        <v>310</v>
-      </c>
-      <c r="D11" s="10">
-        <v>315</v>
-      </c>
-      <c r="E11" s="10">
-        <f t="shared" si="0"/>
-        <v>312.5</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="14">
-        <v>3150</v>
-      </c>
-      <c r="E12" s="10">
-        <f t="shared" si="0"/>
-        <v>2575</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13">
-        <f>SUM(E6:E12)</f>
-        <v>10747</v>
-      </c>
-      <c r="F13" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
+        <v>2009</v>
+      </c>
+      <c r="B5" s="18">
+        <v>50870451</v>
+      </c>
+      <c r="C5" s="18">
+        <v>17517112</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1320144</v>
+      </c>
+      <c r="E5" s="18">
+        <v>620872</v>
+      </c>
+      <c r="F5" s="18">
+        <v>52190595</v>
+      </c>
+      <c r="G5" s="18">
+        <v>18137984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="18">
+        <v>43763091</v>
+      </c>
+      <c r="C6" s="18">
+        <v>18481678</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1320095</v>
+      </c>
+      <c r="E6" s="18">
+        <v>624502</v>
+      </c>
+      <c r="F6" s="18">
+        <v>45083186</v>
+      </c>
+      <c r="G6" s="18">
+        <v>19106180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="18">
+        <v>51075952</v>
+      </c>
+      <c r="C7" s="18">
+        <v>14398470</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1223758</v>
+      </c>
+      <c r="E7" s="18">
+        <v>650082</v>
+      </c>
+      <c r="F7" s="18">
+        <v>52299710</v>
+      </c>
+      <c r="G7" s="18">
+        <v>15048552</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="17">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="18">
+        <v>57971110</v>
+      </c>
+      <c r="C8" s="18">
+        <v>11392267</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1285959</v>
+      </c>
+      <c r="E8" s="18">
+        <v>603382</v>
+      </c>
+      <c r="F8" s="18">
+        <v>59257069</v>
+      </c>
+      <c r="G8" s="18">
+        <v>11995649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="17">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="18">
+        <v>62739038</v>
+      </c>
+      <c r="C9" s="18">
+        <v>10694907</v>
+      </c>
+      <c r="D9" s="18">
+        <v>6207597</v>
+      </c>
+      <c r="E9" s="18">
+        <v>678300</v>
+      </c>
+      <c r="F9" s="18">
+        <v>68946635</v>
+      </c>
+      <c r="G9" s="18">
+        <v>11373207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="17">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="18">
+        <v>59369660</v>
+      </c>
+      <c r="C10" s="18">
+        <v>12860889</v>
+      </c>
+      <c r="D10" s="18">
+        <v>7140624</v>
+      </c>
+      <c r="E10" s="18">
+        <v>437364</v>
+      </c>
+      <c r="F10" s="18">
+        <v>66510284</v>
+      </c>
+      <c r="G10" s="18">
+        <v>13298253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="17">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="18">
+        <v>68462277</v>
+      </c>
+      <c r="C11" s="18">
+        <v>8707873</v>
+      </c>
+      <c r="D11" s="18">
+        <v>7308192</v>
+      </c>
+      <c r="E11" s="18">
+        <v>392016</v>
+      </c>
+      <c r="F11" s="18">
+        <v>75770469</v>
+      </c>
+      <c r="G11" s="18">
+        <v>9099889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="17">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="18">
+        <v>65173818</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2682381</v>
+      </c>
+      <c r="D12" s="18">
+        <v>7542445</v>
+      </c>
+      <c r="E12" s="18">
+        <v>3531636</v>
+      </c>
+      <c r="F12" s="18">
+        <v>72716263</v>
+      </c>
+      <c r="G12" s="18">
+        <v>6214017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="17">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="18">
+        <v>59909320</v>
+      </c>
+      <c r="C13" s="18">
+        <v>3312798</v>
+      </c>
+      <c r="D13" s="18">
+        <v>5775597</v>
+      </c>
+      <c r="E13" s="18">
+        <v>6058005</v>
+      </c>
+      <c r="F13" s="18">
+        <v>65684917</v>
+      </c>
+      <c r="G13" s="18">
+        <v>9370803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="17">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="18">
+        <v>51494627</v>
+      </c>
+      <c r="C14" s="18">
+        <v>7290070</v>
+      </c>
+      <c r="D14" s="18">
+        <v>6765975</v>
+      </c>
+      <c r="E14" s="18">
+        <v>6514422</v>
+      </c>
+      <c r="F14" s="18">
+        <v>58260602</v>
+      </c>
+      <c r="G14" s="18">
+        <v>13804492</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="17">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="18">
+        <v>52309254</v>
+      </c>
+      <c r="C15" s="18">
+        <v>13532067</v>
+      </c>
+      <c r="D15" s="18">
+        <v>6743207</v>
+      </c>
+      <c r="E15" s="18">
+        <v>6475965</v>
+      </c>
+      <c r="F15" s="18">
+        <v>59052461</v>
+      </c>
+      <c r="G15" s="18">
+        <v>20008032</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="20" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
+  <mergeCells count="6">
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4">
-        <f>'CDN data'!E13</f>
-        <v>10747</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="9">
+        <f>SUM(Calculations!B8,Calculations!B24)</f>
+        <v>26437.234950481161</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
+++ b/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/elec/TCAMRB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_9E1E1613CBCEDCAD0C172361B47D81074791905D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACBBC768-8DE8-4FBA-9DF1-3B20ECB344A5}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_9E1E1613CBCEDCAD0C172361B47D81074791905D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B8C987B-BC95-4411-8B41-FF9962E55F93}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-4080" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDN data" sheetId="5" r:id="rId2"/>
     <sheet name="TCAMRB" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -47,112 +48,112 @@
     <t>Sources:</t>
   </si>
   <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>2017 Strategic Electricity Interties</t>
+  </si>
+  <si>
+    <t>https://www.ourcommons.ca/Content/Committee/421/RNNR/Reports/RP9335660/rnnrrp07/rnnrrp07-e.pdf</t>
+  </si>
+  <si>
+    <t>Interconnection details available at: https://www.c2es.org/site/assets/uploads/2017/05/canada-interconnected.pdf</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Used average import/export capability data</t>
+  </si>
+  <si>
+    <t>All sources included in 'CDN data' tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many of the sources from v1.4.3 study are not longer viable. </t>
+  </si>
+  <si>
+    <t>V3.3.0 source contains all strategic interties with US, data from NRCan 2017. More modern reference not available.</t>
+  </si>
+  <si>
+    <t>Interties with the US - 1.4.3 Version</t>
+  </si>
+  <si>
+    <t>Interconnection</t>
+  </si>
+  <si>
+    <t>Interconnection capability (MW)</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Between</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Reception</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>http://normandmousseau.com/documents/Locke-2.pdf</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>http://www.hydroquebec.com/data/transenergie/pdf/hqt-plan-directeur-2020.pdf</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>http://www.ieso.com/-/media/files/ieso/document-library/power-data/supply/</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>http://www.pubmanitoba.ca/v1/nfat/pdf/hydro_application/nfat_business_case_chapter_05_the_manitoba_hydro_system_interconnection_and_export_markets.pdf</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>https://docs2.neb-one.gc.ca/ll-eng/llisapi.dll?func=ll&amp;objId=587269&amp;objaction=download&amp;viewType=1</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>https://www.aeso.ca/market/current-market-initiatives/intertie-restoration/</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>https://www.bchydro.com/content/dam/hydro/medialib/internet/documents/planning_regulatory/iep_ltap/2012q2/draft_2012_irp_appendix24.pdf</t>
+  </si>
+  <si>
+    <t>Interties with the US - 3.3.0 Version</t>
+  </si>
+  <si>
+    <t>Transmission Capacity Across Modeled Region Border</t>
+  </si>
+  <si>
     <t>MW</t>
-  </si>
-  <si>
-    <t>Transmission Capacity Across Modeled Region Border</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Interconnection details available at: https://www.c2es.org/site/assets/uploads/2017/05/canada-interconnected.pdf</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>Interconnection</t>
-  </si>
-  <si>
-    <t>Interconnection capability (MW)</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Between</t>
-  </si>
-  <si>
-    <t>And</t>
-  </si>
-  <si>
-    <t>Reception</t>
-  </si>
-  <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>QC</t>
-  </si>
-  <si>
-    <t>http://www.hydroquebec.com/data/transenergie/pdf/hqt-plan-directeur-2020.pdf</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>http://www.pubmanitoba.ca/v1/nfat/pdf/hydro_application/nfat_business_case_chapter_05_the_manitoba_hydro_system_interconnection_and_export_markets.pdf</t>
-  </si>
-  <si>
-    <t>http://normandmousseau.com/documents/Locke-2.pdf</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>https://www.bchydro.com/content/dam/hydro/medialib/internet/documents/planning_regulatory/iep_ltap/2012q2/draft_2012_irp_appendix24.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ieso.com/-/media/files/ieso/document-library/power-data/supply/</t>
-  </si>
-  <si>
-    <t>https://www.aeso.ca/market/current-market-initiatives/intertie-restoration/</t>
-  </si>
-  <si>
-    <t>https://docs2.neb-one.gc.ca/ll-eng/llisapi.dll?func=ll&amp;objId=587269&amp;objaction=download&amp;viewType=1</t>
-  </si>
-  <si>
-    <t>Used average import/export capability data</t>
-  </si>
-  <si>
-    <t>All sources included in 'CDN data' tab</t>
-  </si>
-  <si>
-    <t>Interties with the US - 1.4.3 Version</t>
-  </si>
-  <si>
-    <t>Interties with the US - 3.3.0 Version</t>
-  </si>
-  <si>
-    <t>https://www.ourcommons.ca/Content/Committee/421/RNNR/Reports/RP9335660/rnnrrp07/rnnrrp07-e.pdf</t>
-  </si>
-  <si>
-    <t>2017 Strategic Electricity Interties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Many of the sources from v1.4.3 study are not longer viable. </t>
-  </si>
-  <si>
-    <t>V3.3.0 source contains all strategic interties with US, data from NRCan 2017. More modern reference not available.</t>
   </si>
 </sst>
 </file>
@@ -256,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -264,11 +265,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -282,15 +278,12 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -600,86 +593,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="2" width="70.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="70.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -695,407 +679,407 @@
   <dimension ref="A3:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F18" sqref="F18:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="12" t="s">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7">
         <v>705</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>1120</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <f>AVERAGE(C6,D6)</f>
         <v>912.5</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="F6" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7">
         <f>1100+2170</f>
         <v>3270</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <f>1999+2275</f>
         <v>4274</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <f>AVERAGE(C7,D7)</f>
         <v>3772</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="10">
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7">
         <f>800+900</f>
         <v>1700</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <f>800+900</f>
         <v>1700</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <f t="shared" ref="E8:E12" si="0">AVERAGE(C8,D8)</f>
         <v>1700</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7">
         <v>700</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <f>1950</f>
         <v>1950</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>1325</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="F9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="C10" s="7">
         <v>150</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>150</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="7">
         <v>310</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>315</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7">
         <v>2000</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>3150</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>2575</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13">
+      <c r="F12" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="10">
         <f>SUM(E6:E12)</f>
         <v>10747</v>
       </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="10">
+      <c r="E17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7">
         <v>777</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="7">
         <v>1627</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="7">
         <f>AVERAGE(C18,D18)</f>
         <v>1202</v>
       </c>
-      <c r="F18" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="F18" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="7">
         <f>1100+2170</f>
         <v>3270</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="7">
         <f>1999+2275</f>
         <v>4274</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="7">
         <f>AVERAGE(C19,D19)</f>
         <v>3772</v>
       </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="10" t="s">
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="10">
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7">
         <f>100+1650+2100</f>
         <v>3850</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <f>150+1650+2100</f>
         <v>3900</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="7">
         <f t="shared" ref="E20:E24" si="1">AVERAGE(C20,D20)</f>
         <v>3875</v>
       </c>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7">
         <v>700</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="7">
         <v>1950</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="7">
         <f t="shared" si="1"/>
         <v>1325</v>
       </c>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="10">
+      <c r="C22" s="7">
         <v>140</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="7">
         <v>105</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="7">
         <f t="shared" si="1"/>
         <v>122.5</v>
       </c>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="10">
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7">
         <v>300</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="7">
         <v>325</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="7">
         <f t="shared" si="1"/>
         <v>312.5</v>
       </c>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="10">
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7">
         <v>3000</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="11">
         <v>3150</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="7">
         <f t="shared" si="1"/>
         <v>3075</v>
       </c>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="13">
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="10">
         <f>SUM(E18:E24)</f>
         <v>13684</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1111,6 +1095,7 @@
     <hyperlink ref="F8" r:id="rId3" xr:uid="{C1A0178F-E3C5-47C8-80D9-9A70F8D7B40E}"/>
     <hyperlink ref="F9" r:id="rId4" xr:uid="{B254E25A-1F1A-4A49-A4BC-F919C2155F5D}"/>
     <hyperlink ref="F12" r:id="rId5" xr:uid="{65F4FEA5-7D27-4EC2-A92F-2FACF8907242}"/>
+    <hyperlink ref="F18" r:id="rId6" xr:uid="{E89BA2AE-BB97-4F44-8750-A071FFC71BE4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1124,19 +1109,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4">
         <f>'CDN data'!E25</f>
@@ -1161,6 +1146,9 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </l787e5950a9249679d0130235a9a791b>
     <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
 </file>
@@ -1175,8 +1163,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -1200,6 +1188,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1286,6 +1276,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -1423,9 +1425,17 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0645183-91F1-49FF-A86D-7D517E2DE5BD}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1439,7 +1449,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1834965-0DEF-445E-B2D3-5F9B03BEFCAA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECE443D8-AB7B-4557-916E-6019454FECC7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
+++ b/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData Processed by Jeff\elec\TCAMRB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/elec/TCAMRB/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_9E1E1613CBCEDCAD0C172361B47D81074791905D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B8C987B-BC95-4411-8B41-FF9962E55F93}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="460" windowWidth="22300" windowHeight="14480"/>
+    <workbookView xWindow="-28920" yWindow="-4080" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="CDN data" sheetId="5" r:id="rId2"/>
     <sheet name="TCAMRB" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>TCAMRB Transmission Capacity Across Modeled Region Border</t>
   </si>
@@ -37,113 +48,122 @@
     <t>Sources:</t>
   </si>
   <si>
+    <t>NEB</t>
+  </si>
+  <si>
+    <t>2017 Strategic Electricity Interties</t>
+  </si>
+  <si>
+    <t>https://www.ourcommons.ca/Content/Committee/421/RNNR/Reports/RP9335660/rnnrrp07/rnnrrp07-e.pdf</t>
+  </si>
+  <si>
+    <t>Interconnection details available at: https://www.c2es.org/site/assets/uploads/2017/05/canada-interconnected.pdf</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Used average import/export capability data</t>
+  </si>
+  <si>
+    <t>All sources included in 'CDN data' tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Many of the sources from v1.4.3 study are not longer viable. </t>
+  </si>
+  <si>
+    <t>V3.3.0 source contains all strategic interties with US, data from NRCan 2017. More modern reference not available.</t>
+  </si>
+  <si>
+    <t>Interties with the US - 1.4.3 Version</t>
+  </si>
+  <si>
+    <t>Interconnection</t>
+  </si>
+  <si>
+    <t>Interconnection capability (MW)</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Between</t>
+  </si>
+  <si>
+    <t>And</t>
+  </si>
+  <si>
+    <t>Reception</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>http://normandmousseau.com/documents/Locke-2.pdf</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>http://www.hydroquebec.com/data/transenergie/pdf/hqt-plan-directeur-2020.pdf</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>http://www.ieso.com/-/media/files/ieso/document-library/power-data/supply/</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>http://www.pubmanitoba.ca/v1/nfat/pdf/hydro_application/nfat_business_case_chapter_05_the_manitoba_hydro_system_interconnection_and_export_markets.pdf</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>https://docs2.neb-one.gc.ca/ll-eng/llisapi.dll?func=ll&amp;objId=587269&amp;objaction=download&amp;viewType=1</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>https://www.aeso.ca/market/current-market-initiatives/intertie-restoration/</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>https://www.bchydro.com/content/dam/hydro/medialib/internet/documents/planning_regulatory/iep_ltap/2012q2/draft_2012_irp_appendix24.pdf</t>
+  </si>
+  <si>
+    <t>Interties with the US - 3.3.0 Version</t>
+  </si>
+  <si>
+    <t>Transmission Capacity Across Modeled Region Border</t>
+  </si>
+  <si>
     <t>MW</t>
-  </si>
-  <si>
-    <t>Transmission Capacity Across Modeled Region Border</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Interconnection details available at: https://www.c2es.org/site/assets/uploads/2017/05/canada-interconnected.pdf</t>
-  </si>
-  <si>
-    <t>NEB</t>
-  </si>
-  <si>
-    <t>2016 Electricity Exports and Imports Summary</t>
-  </si>
-  <si>
-    <t>https://www.neb-one.gc.ca/nrg/sttstc/lctrct/stt/lctrctysmmr/2016/smmry2016-eng.html</t>
-  </si>
-  <si>
-    <t>Interconnection</t>
-  </si>
-  <si>
-    <t>Interconnection capability (MW)</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Between</t>
-  </si>
-  <si>
-    <t>And</t>
-  </si>
-  <si>
-    <t>Reception</t>
-  </si>
-  <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>QC</t>
-  </si>
-  <si>
-    <t>http://www.hydroquebec.com/data/transenergie/pdf/hqt-plan-directeur-2020.pdf</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>MB</t>
-  </si>
-  <si>
-    <t>http://www.pubmanitoba.ca/v1/nfat/pdf/hydro_application/nfat_business_case_chapter_05_the_manitoba_hydro_system_interconnection_and_export_markets.pdf</t>
-  </si>
-  <si>
-    <t>http://normandmousseau.com/documents/Locke-2.pdf</t>
-  </si>
-  <si>
-    <t>Interties with the US</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>https://www.bchydro.com/content/dam/hydro/medialib/internet/documents/planning_regulatory/iep_ltap/2012q2/draft_2012_irp_appendix24.pdf</t>
-  </si>
-  <si>
-    <t>http://www.ieso.com/-/media/files/ieso/document-library/power-data/supply/</t>
-  </si>
-  <si>
-    <t>https://www.aeso.ca/market/current-market-initiatives/intertie-restoration/</t>
-  </si>
-  <si>
-    <t>https://docs2.neb-one.gc.ca/ll-eng/llisapi.dll?func=ll&amp;objId=587269&amp;objaction=download&amp;viewType=1</t>
-  </si>
-  <si>
-    <t>Used average import/export capability data</t>
-  </si>
-  <si>
-    <t>All sources included in 'CDN data' tab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +209,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -225,8 +253,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -236,11 +265,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -254,11 +278,19 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,340 +592,878 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
-    <col min="2" max="2" width="70.36328125" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="70.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{232883F1-6C7B-4AD1-A095-EED34E9E3B27}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="3" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="11" t="s">
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="C5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="7">
         <v>705</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>1120</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <f>AVERAGE(C6,D6)</f>
         <v>912.5</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="F6" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="7">
         <f>1100+2170</f>
         <v>3270</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <f>1999+2275</f>
         <v>4274</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <f>AVERAGE(C7,D7)</f>
         <v>3772</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="F7" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7">
         <f>800+900</f>
         <v>1700</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <f>800+900</f>
         <v>1700</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <f t="shared" ref="E8:E12" si="0">AVERAGE(C8,D8)</f>
         <v>1700</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="F8" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7">
         <v>700</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <f>1950</f>
         <v>1950</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <f t="shared" si="0"/>
         <v>1325</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7">
         <v>150</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>150</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>310</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>315</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <f t="shared" si="0"/>
         <v>312.5</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10">
+      <c r="F11" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="7">
         <v>2000</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="11">
         <v>3150</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="7">
         <f t="shared" si="0"/>
         <v>2575</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13">
+      <c r="F12" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="10">
         <f>SUM(E6:E12)</f>
         <v>10747</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7">
+        <v>777</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1627</v>
+      </c>
+      <c r="E18" s="7">
+        <f>AVERAGE(C18,D18)</f>
+        <v>1202</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="7">
+        <f>1100+2170</f>
+        <v>3270</v>
+      </c>
+      <c r="D19" s="7">
+        <f>1999+2275</f>
+        <v>4274</v>
+      </c>
+      <c r="E19" s="7">
+        <f>AVERAGE(C19,D19)</f>
+        <v>3772</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="7">
+        <f>100+1650+2100</f>
+        <v>3850</v>
+      </c>
+      <c r="D20" s="7">
+        <f>150+1650+2100</f>
+        <v>3900</v>
+      </c>
+      <c r="E20" s="7">
+        <f t="shared" ref="E20:E24" si="1">AVERAGE(C20,D20)</f>
+        <v>3875</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="7">
+        <v>700</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1950</v>
+      </c>
+      <c r="E21" s="7">
+        <f t="shared" si="1"/>
+        <v>1325</v>
+      </c>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7">
+        <v>140</v>
+      </c>
+      <c r="D22" s="7">
+        <v>105</v>
+      </c>
+      <c r="E22" s="7">
+        <f t="shared" si="1"/>
+        <v>122.5</v>
+      </c>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7">
+        <v>300</v>
+      </c>
+      <c r="D23" s="7">
+        <v>325</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="1"/>
+        <v>312.5</v>
+      </c>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3150</v>
+      </c>
+      <c r="E24" s="7">
+        <f t="shared" si="1"/>
+        <v>3075</v>
+      </c>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="10">
+        <f>SUM(E18:E24)</f>
+        <v>13684</v>
+      </c>
+      <c r="F25" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F18:F24"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{002A58F4-7933-4D22-824C-9323FC789741}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{235A9480-70E7-4A87-A34B-5ABF647ADFAD}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{C1A0178F-E3C5-47C8-80D9-9A70F8D7B40E}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{B254E25A-1F1A-4A49-A4BC-F919C2155F5D}"/>
+    <hyperlink ref="F12" r:id="rId5" xr:uid="{65F4FEA5-7D27-4EC2-A92F-2FACF8907242}"/>
+    <hyperlink ref="F18" r:id="rId6" xr:uid="{E89BA2AE-BB97-4F44-8750-A071FFC71BE4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4">
-        <f>'CDN data'!E13</f>
-        <v>10747</v>
+        <f>'CDN data'!E25</f>
+        <v>13684</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0645183-91F1-49FF-A86D-7D517E2DE5BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC629D54-01FC-41E9-AD53-E15F3F2EBFCE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECE443D8-AB7B-4557-916E-6019454FECC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
+++ b/InputData/elec/TCAMRB/Trans Cap Across Modeled Region Border.xlsx
@@ -1163,8 +1163,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -1190,6 +1190,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1290,6 +1291,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1449,21 +1455,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECE443D8-AB7B-4557-916E-6019454FECC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DBFFFAF-2CA6-4690-8DB0-895415C9AD07}"/>
 </file>